--- a/norm_correct_avgdsubj_NPI_v1.xlsx
+++ b/norm_correct_avgdsubj_NPI_v1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lplab\Documents\composite_variables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitchtho\Documents\behavior_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7305"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -284,7 +284,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -732,15 +732,15 @@
   <dimension ref="A1:AO22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.90625" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -865,7 +865,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -990,7 +990,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>3.5178926698828086</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>2.4039057629080394</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>35740</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -3365,7 +3365,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>35764</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -3504,9 +3504,9 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>34404</v>
       </c>
@@ -3518,7 +3518,7 @@
       </c>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>34266</v>
       </c>
@@ -3527,7 +3527,7 @@
       </c>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>34477</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>34527</v>
       </c>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>34691</v>
       </c>
@@ -3556,7 +3556,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>34376</v>
       </c>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>34412</v>
       </c>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>34680</v>
       </c>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>34352</v>
       </c>
@@ -3595,7 +3595,7 @@
       </c>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>34577</v>
       </c>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>35331</v>
       </c>
@@ -3613,7 +3613,7 @@
       </c>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>35408</v>
       </c>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>35435</v>
       </c>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>35444</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>35455</v>
       </c>
@@ -3654,7 +3654,7 @@
       </c>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>35476</v>
       </c>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>35505</v>
       </c>
@@ -3672,7 +3672,7 @@
       </c>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>35600</v>
       </c>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>35624</v>
       </c>
@@ -3690,7 +3690,7 @@
       </c>
       <c r="D19" s="9"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>35712</v>
       </c>
@@ -3699,7 +3699,7 @@
       </c>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>35716</v>
       </c>
@@ -3708,7 +3708,7 @@
       </c>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>35375</v>
       </c>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>35740</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>35764</v>
       </c>

--- a/norm_correct_avgdsubj_NPI_v1.xlsx
+++ b/norm_correct_avgdsubj_NPI_v1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitchtho\Documents\behavior_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lplab\Documents\behavior_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -284,8 +284,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,8 +320,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,6 +343,66 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -449,6 +515,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,16 +807,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -865,7 +945,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -881,7 +961,7 @@
       <c r="E2" t="s">
         <v>43</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="16">
         <v>34266</v>
       </c>
       <c r="G2">
@@ -990,7 +1070,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1006,7 +1086,7 @@
       <c r="E3" t="s">
         <v>45</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="21">
         <v>34352</v>
       </c>
       <c r="G3">
@@ -1115,7 +1195,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1131,7 +1211,7 @@
       <c r="E4" t="s">
         <v>43</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="18">
         <v>34376</v>
       </c>
       <c r="G4">
@@ -1240,7 +1320,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1256,7 +1336,7 @@
       <c r="E5" t="s">
         <v>45</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="15">
         <v>34477</v>
       </c>
       <c r="G5">
@@ -1365,7 +1445,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1381,7 +1461,7 @@
       <c r="E6" t="s">
         <v>43</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="8">
         <v>34577</v>
       </c>
       <c r="G6">
@@ -1490,7 +1570,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1506,7 +1586,7 @@
       <c r="E7" t="s">
         <v>45</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="14">
         <v>34527</v>
       </c>
       <c r="G7">
@@ -1615,7 +1695,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1631,7 +1711,7 @@
       <c r="E8" t="s">
         <v>43</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="13">
         <v>34691</v>
       </c>
       <c r="G8">
@@ -1740,7 +1820,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1756,7 +1836,7 @@
       <c r="E9" t="s">
         <v>45</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="19">
         <v>34680</v>
       </c>
       <c r="G9">
@@ -1865,7 +1945,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1881,7 +1961,7 @@
       <c r="E10" t="s">
         <v>43</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="17">
         <v>35375</v>
       </c>
       <c r="G10">
@@ -1990,7 +2070,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2006,7 +2086,7 @@
       <c r="E11" t="s">
         <v>45</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="16">
         <v>35331</v>
       </c>
       <c r="G11">
@@ -2115,7 +2195,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2131,7 +2211,7 @@
       <c r="E12" t="s">
         <v>43</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="15">
         <v>35435</v>
       </c>
       <c r="G12">
@@ -2240,7 +2320,7 @@
         <v>3.5178926698828086</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -2256,7 +2336,7 @@
       <c r="E13" t="s">
         <v>43</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="14">
         <v>35455</v>
       </c>
       <c r="G13">
@@ -2365,7 +2445,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -2381,7 +2461,7 @@
       <c r="E14" t="s">
         <v>45</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="13">
         <v>35444</v>
       </c>
       <c r="G14">
@@ -2490,7 +2570,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -2506,7 +2586,7 @@
       <c r="E15" t="s">
         <v>43</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="9">
         <v>35505</v>
       </c>
       <c r="G15">
@@ -2615,7 +2695,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -2631,7 +2711,7 @@
       <c r="E16" t="s">
         <v>45</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="8">
         <v>35476</v>
       </c>
       <c r="G16">
@@ -2740,7 +2820,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -2756,7 +2836,7 @@
       <c r="E17" t="s">
         <v>43</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="18">
         <v>35600</v>
       </c>
       <c r="G17">
@@ -2865,7 +2945,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -2881,7 +2961,7 @@
       <c r="E18" t="s">
         <v>45</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="22">
         <v>35624</v>
       </c>
       <c r="G18">
@@ -2990,7 +3070,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -3006,7 +3086,7 @@
       <c r="E19" t="s">
         <v>43</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="21">
         <v>35716</v>
       </c>
       <c r="G19">
@@ -3115,7 +3195,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -3131,7 +3211,7 @@
       <c r="E20" t="s">
         <v>45</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="20">
         <v>35712</v>
       </c>
       <c r="G20">
@@ -3240,7 +3320,7 @@
         <v>2.4039057629080394</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -3365,7 +3445,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -3492,7 +3572,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3504,9 +3585,9 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <v>34404</v>
       </c>
@@ -3518,7 +3599,7 @@
       </c>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>34266</v>
       </c>
@@ -3527,7 +3608,7 @@
       </c>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>34477</v>
       </c>
@@ -3538,7 +3619,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>34527</v>
       </c>
@@ -3547,7 +3628,7 @@
       </c>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>34691</v>
       </c>
@@ -3556,7 +3637,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>34376</v>
       </c>
@@ -3565,7 +3646,7 @@
       </c>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>34412</v>
       </c>
@@ -3577,7 +3658,7 @@
       </c>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>34680</v>
       </c>
@@ -3586,7 +3667,7 @@
       </c>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>34352</v>
       </c>
@@ -3595,7 +3676,7 @@
       </c>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="7">
         <v>34577</v>
       </c>
@@ -3604,7 +3685,7 @@
       </c>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>35331</v>
       </c>
@@ -3613,7 +3694,7 @@
       </c>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>35408</v>
       </c>
@@ -3625,7 +3706,7 @@
       </c>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>35435</v>
       </c>
@@ -3634,7 +3715,7 @@
       </c>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>35444</v>
       </c>
@@ -3645,7 +3726,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>35455</v>
       </c>
@@ -3654,7 +3735,7 @@
       </c>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>35476</v>
       </c>
@@ -3663,7 +3744,7 @@
       </c>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>35505</v>
       </c>
@@ -3672,7 +3753,7 @@
       </c>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>35600</v>
       </c>
@@ -3681,7 +3762,7 @@
       </c>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>35624</v>
       </c>
@@ -3690,7 +3771,7 @@
       </c>
       <c r="D19" s="9"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>35712</v>
       </c>
@@ -3699,7 +3780,7 @@
       </c>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>35716</v>
       </c>
@@ -3708,7 +3789,7 @@
       </c>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="12">
         <v>35375</v>
       </c>
@@ -3717,7 +3798,7 @@
       </c>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>35740</v>
       </c>
@@ -3725,7 +3806,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>35764</v>
       </c>
